--- a/data/naeem_Esfenvalerate_2019.xlsx
+++ b/data/naeem_Esfenvalerate_2019.xlsx
@@ -78,13 +78,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -140,8 +146,8 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -478,7 +484,7 @@
     <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -552,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="6">
         <v>0.0001</v>
       </c>
@@ -589,7 +595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6">
         <v>0.001</v>
       </c>
@@ -624,7 +630,7 @@
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6">
         <v>0.01</v>
       </c>
@@ -661,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6">
         <v>0.1</v>
       </c>
@@ -698,7 +704,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6">
         <v>0.316</v>
       </c>
@@ -731,7 +737,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -764,7 +770,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6">
         <v>3.16</v>
       </c>
